--- a/5-switch-between-python-objects-excel-values/switch-between-python-objects-excel-values-start.xlsx
+++ b/5-switch-between-python-objects-excel-values/switch-between-python-objects-excel-values-start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/Stringfest assets/OReilly/oreilly-shortcuts/python-in-excel/5-switch-between-python-objects-excel-values/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\oreilly-shortcuts-python-in-excel\5-switch-between-python-objects-excel-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{6E4F4FC7-C384-4224-BDFE-BA61E91B1BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB44D138-A4DB-4A45-B1BE-8815897B8C4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CC2464-0293-43B2-9A8D-C4B2BBD724D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nyc-pop" sheetId="1" r:id="rId1"/>
@@ -35,28 +35,6 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
@@ -74,12 +52,6 @@
 </code>
     </initialization>
   </environmentDefinition>
-  <pythonScripts>
-    <pythonScript>
-      <code>mpg_df = xl(%P2%, headers=True)
-mpg_df.head()</code>
-    </pythonScript>
-  </pythonScripts>
 </python>
 </file>
 
@@ -443,26 +415,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q399"/>
+  <dimension ref="A1:H399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="4.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="4.703125" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.41015625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.05859375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.87890625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1171875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.46875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -513,33 +482,8 @@
       <c r="H2">
         <v>70</v>
       </c>
-      <c r="J2" t="str" cm="1">
-        <f t="array" ref="J2:Q7">_xlfn._xlws.PY(0,0,mpg[#All])</f>
-        <v>id</v>
-      </c>
-      <c r="K2" t="str">
-        <v>mpg</v>
-      </c>
-      <c r="L2" t="str">
-        <v>cylinders</v>
-      </c>
-      <c r="M2" t="str">
-        <v>displacement</v>
-      </c>
-      <c r="N2" t="str">
-        <v>horsepower</v>
-      </c>
-      <c r="O2" t="str">
-        <v>weight</v>
-      </c>
-      <c r="P2" t="str">
-        <v>acceleration</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>model_year</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -564,32 +508,8 @@
       <c r="H3">
         <v>70</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>8</v>
-      </c>
-      <c r="M3">
-        <v>307</v>
-      </c>
-      <c r="N3">
-        <v>130</v>
-      </c>
-      <c r="O3">
-        <v>3504</v>
-      </c>
-      <c r="P3">
-        <v>12</v>
-      </c>
-      <c r="Q3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -614,32 +534,8 @@
       <c r="H4">
         <v>70</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>15</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
-        <v>350</v>
-      </c>
-      <c r="N4">
-        <v>165</v>
-      </c>
-      <c r="O4">
-        <v>3693</v>
-      </c>
-      <c r="P4">
-        <v>11.5</v>
-      </c>
-      <c r="Q4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -664,32 +560,8 @@
       <c r="H5">
         <v>70</v>
       </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>18</v>
-      </c>
-      <c r="L5">
-        <v>8</v>
-      </c>
-      <c r="M5">
-        <v>318</v>
-      </c>
-      <c r="N5">
-        <v>150</v>
-      </c>
-      <c r="O5">
-        <v>3436</v>
-      </c>
-      <c r="P5">
-        <v>11</v>
-      </c>
-      <c r="Q5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -714,32 +586,8 @@
       <c r="H6">
         <v>70</v>
       </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>16</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <v>304</v>
-      </c>
-      <c r="N6">
-        <v>150</v>
-      </c>
-      <c r="O6">
-        <v>3433</v>
-      </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
-      <c r="Q6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -764,32 +612,8 @@
       <c r="H7">
         <v>70</v>
       </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>17</v>
-      </c>
-      <c r="L7">
-        <v>8</v>
-      </c>
-      <c r="M7">
-        <v>302</v>
-      </c>
-      <c r="N7">
-        <v>140</v>
-      </c>
-      <c r="O7">
-        <v>3449</v>
-      </c>
-      <c r="P7">
-        <v>10.5</v>
-      </c>
-      <c r="Q7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -815,7 +639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -841,7 +665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -867,7 +691,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -893,7 +717,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -919,7 +743,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -945,7 +769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -971,7 +795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -997,7 +821,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1023,7 +847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1049,7 +873,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1075,7 +899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1101,7 +925,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1127,7 +951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1153,7 +977,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1179,7 +1003,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1205,7 +1029,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1231,7 +1055,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1257,7 +1081,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1283,7 +1107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1309,7 +1133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1335,7 +1159,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1361,7 +1185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1387,7 +1211,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1413,7 +1237,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1439,7 +1263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1465,7 +1289,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1488,7 +1312,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1514,7 +1338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1540,7 +1364,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1566,7 +1390,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1592,7 +1416,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1618,7 +1442,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1644,7 +1468,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1670,7 +1494,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1696,7 +1520,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1722,7 +1546,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1748,7 +1572,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1774,7 +1598,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1800,7 +1624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1826,7 +1650,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1852,7 +1676,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1878,7 +1702,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1904,7 +1728,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1930,7 +1754,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1956,7 +1780,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1982,7 +1806,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2008,7 +1832,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2034,7 +1858,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2060,7 +1884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2086,7 +1910,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2112,7 +1936,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2138,7 +1962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2164,7 +1988,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2190,7 +2014,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2216,7 +2040,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2242,7 +2066,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2268,7 +2092,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2294,7 +2118,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2320,7 +2144,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2346,7 +2170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2372,7 +2196,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2398,7 +2222,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2424,7 +2248,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2450,7 +2274,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2476,7 +2300,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2502,7 +2326,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2528,7 +2352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2554,7 +2378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2580,7 +2404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2606,7 +2430,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2632,7 +2456,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2658,7 +2482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2684,7 +2508,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2710,7 +2534,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2736,7 +2560,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2762,7 +2586,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2788,7 +2612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2814,7 +2638,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2840,7 +2664,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2866,7 +2690,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2892,7 +2716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2918,7 +2742,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2944,7 +2768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2970,7 +2794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2996,7 +2820,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3022,7 +2846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3048,7 +2872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3074,7 +2898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3100,7 +2924,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3126,7 +2950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3152,7 +2976,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3178,7 +3002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3204,7 +3028,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3230,7 +3054,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3256,7 +3080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3282,7 +3106,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3308,7 +3132,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3334,7 +3158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3360,7 +3184,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3386,7 +3210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3412,7 +3236,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3438,7 +3262,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3464,7 +3288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3490,7 +3314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3516,7 +3340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3542,7 +3366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3568,7 +3392,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3594,7 +3418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3620,7 +3444,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3646,7 +3470,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3672,7 +3496,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3698,7 +3522,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3724,7 +3548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3750,7 +3574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3776,7 +3600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3802,7 +3626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3828,7 +3652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3854,7 +3678,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3880,7 +3704,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3906,7 +3730,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3929,7 +3753,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3955,7 +3779,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3981,7 +3805,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4007,7 +3831,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4033,7 +3857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4059,7 +3883,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4085,7 +3909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4111,7 +3935,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4137,7 +3961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4163,7 +3987,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4189,7 +4013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4215,7 +4039,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4241,7 +4065,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4267,7 +4091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4293,7 +4117,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4319,7 +4143,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4345,7 +4169,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4371,7 +4195,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4397,7 +4221,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4423,7 +4247,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4449,7 +4273,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4475,7 +4299,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4501,7 +4325,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4527,7 +4351,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4553,7 +4377,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4579,7 +4403,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4605,7 +4429,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4631,7 +4455,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4657,7 +4481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4683,7 +4507,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4709,7 +4533,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4735,7 +4559,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4761,7 +4585,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4787,7 +4611,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4813,7 +4637,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4839,7 +4663,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4865,7 +4689,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4891,7 +4715,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4917,7 +4741,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4943,7 +4767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4969,7 +4793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4995,7 +4819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5021,7 +4845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5047,7 +4871,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5073,7 +4897,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5099,7 +4923,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5125,7 +4949,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5151,7 +4975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5177,7 +5001,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5203,7 +5027,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5229,7 +5053,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5255,7 +5079,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5281,7 +5105,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5307,7 +5131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5333,7 +5157,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5359,7 +5183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5385,7 +5209,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5411,7 +5235,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5437,7 +5261,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5463,7 +5287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5489,7 +5313,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5515,7 +5339,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5541,7 +5365,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5567,7 +5391,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5593,7 +5417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5619,7 +5443,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5645,7 +5469,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5671,7 +5495,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5697,7 +5521,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5723,7 +5547,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5749,7 +5573,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5775,7 +5599,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5801,7 +5625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5827,7 +5651,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5853,7 +5677,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5879,7 +5703,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5905,7 +5729,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5931,7 +5755,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5957,7 +5781,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5983,7 +5807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6009,7 +5833,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6035,7 +5859,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6061,7 +5885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6087,7 +5911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6113,7 +5937,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6139,7 +5963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6165,7 +5989,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6191,7 +6015,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6217,7 +6041,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6243,7 +6067,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6269,7 +6093,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6295,7 +6119,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6321,7 +6145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6347,7 +6171,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6373,7 +6197,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6399,7 +6223,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6425,7 +6249,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6451,7 +6275,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6477,7 +6301,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6503,7 +6327,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6529,7 +6353,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6555,7 +6379,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6581,7 +6405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6607,7 +6431,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6633,7 +6457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6659,7 +6483,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6685,7 +6509,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6711,7 +6535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6737,7 +6561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>236</v>
       </c>
@@ -6763,7 +6587,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>237</v>
       </c>
@@ -6789,7 +6613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>238</v>
       </c>
@@ -6815,7 +6639,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>239</v>
       </c>
@@ -6841,7 +6665,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>240</v>
       </c>
@@ -6867,7 +6691,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>241</v>
       </c>
@@ -6893,7 +6717,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6919,7 +6743,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6945,7 +6769,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6971,7 +6795,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6997,7 +6821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7023,7 +6847,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7049,7 +6873,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7075,7 +6899,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>249</v>
       </c>
@@ -7101,7 +6925,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>250</v>
       </c>
@@ -7127,7 +6951,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>251</v>
       </c>
@@ -7153,7 +6977,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>252</v>
       </c>
@@ -7179,7 +7003,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>253</v>
       </c>
@@ -7205,7 +7029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>254</v>
       </c>
@@ -7231,7 +7055,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>255</v>
       </c>
@@ -7257,7 +7081,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>256</v>
       </c>
@@ -7283,7 +7107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>257</v>
       </c>
@@ -7309,7 +7133,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>258</v>
       </c>
@@ -7335,7 +7159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>259</v>
       </c>
@@ -7361,7 +7185,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>260</v>
       </c>
@@ -7387,7 +7211,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>261</v>
       </c>
@@ -7413,7 +7237,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>262</v>
       </c>
@@ -7439,7 +7263,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>263</v>
       </c>
@@ -7465,7 +7289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>264</v>
       </c>
@@ -7491,7 +7315,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>265</v>
       </c>
@@ -7517,7 +7341,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>266</v>
       </c>
@@ -7543,7 +7367,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>267</v>
       </c>
@@ -7569,7 +7393,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>268</v>
       </c>
@@ -7595,7 +7419,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>269</v>
       </c>
@@ -7621,7 +7445,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>270</v>
       </c>
@@ -7647,7 +7471,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>271</v>
       </c>
@@ -7673,7 +7497,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>272</v>
       </c>
@@ -7699,7 +7523,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>273</v>
       </c>
@@ -7725,7 +7549,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>274</v>
       </c>
@@ -7751,7 +7575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>275</v>
       </c>
@@ -7777,7 +7601,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>276</v>
       </c>
@@ -7803,7 +7627,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>277</v>
       </c>
@@ -7829,7 +7653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>278</v>
       </c>
@@ -7855,7 +7679,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>279</v>
       </c>
@@ -7881,7 +7705,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>280</v>
       </c>
@@ -7907,7 +7731,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>281</v>
       </c>
@@ -7933,7 +7757,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>282</v>
       </c>
@@ -7959,7 +7783,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
         <v>283</v>
       </c>
@@ -7985,7 +7809,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
         <v>284</v>
       </c>
@@ -8011,7 +7835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
         <v>285</v>
       </c>
@@ -8037,7 +7861,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
         <v>286</v>
       </c>
@@ -8063,7 +7887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
         <v>287</v>
       </c>
@@ -8089,7 +7913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
         <v>288</v>
       </c>
@@ -8115,7 +7939,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
         <v>289</v>
       </c>
@@ -8141,7 +7965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
         <v>290</v>
       </c>
@@ -8167,7 +7991,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <v>291</v>
       </c>
@@ -8193,7 +8017,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <v>292</v>
       </c>
@@ -8219,7 +8043,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <v>293</v>
       </c>
@@ -8245,7 +8069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <v>294</v>
       </c>
@@ -8271,7 +8095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <v>295</v>
       </c>
@@ -8297,7 +8121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <v>296</v>
       </c>
@@ -8323,7 +8147,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <v>297</v>
       </c>
@@ -8349,7 +8173,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <v>298</v>
       </c>
@@ -8375,7 +8199,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <v>299</v>
       </c>
@@ -8401,7 +8225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <v>300</v>
       </c>
@@ -8427,7 +8251,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A302">
         <v>301</v>
       </c>
@@ -8453,7 +8277,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A303">
         <v>302</v>
       </c>
@@ -8479,7 +8303,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A304">
         <v>303</v>
       </c>
@@ -8505,7 +8329,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A305">
         <v>304</v>
       </c>
@@ -8531,7 +8355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A306">
         <v>305</v>
       </c>
@@ -8557,7 +8381,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A307">
         <v>306</v>
       </c>
@@ -8583,7 +8407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
         <v>307</v>
       </c>
@@ -8609,7 +8433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A309">
         <v>308</v>
       </c>
@@ -8635,7 +8459,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A310">
         <v>309</v>
       </c>
@@ -8661,7 +8485,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A311">
         <v>310</v>
       </c>
@@ -8687,7 +8511,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A312">
         <v>311</v>
       </c>
@@ -8713,7 +8537,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A313">
         <v>312</v>
       </c>
@@ -8739,7 +8563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A314">
         <v>313</v>
       </c>
@@ -8765,7 +8589,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A315">
         <v>314</v>
       </c>
@@ -8791,7 +8615,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A316">
         <v>315</v>
       </c>
@@ -8817,7 +8641,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A317">
         <v>316</v>
       </c>
@@ -8843,7 +8667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A318">
         <v>317</v>
       </c>
@@ -8869,7 +8693,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A319">
         <v>318</v>
       </c>
@@ -8895,7 +8719,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A320">
         <v>319</v>
       </c>
@@ -8921,7 +8745,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A321">
         <v>320</v>
       </c>
@@ -8947,7 +8771,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A322">
         <v>321</v>
       </c>
@@ -8973,7 +8797,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A323">
         <v>322</v>
       </c>
@@ -8999,7 +8823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A324">
         <v>323</v>
       </c>
@@ -9025,7 +8849,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A325">
         <v>324</v>
       </c>
@@ -9051,7 +8875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A326">
         <v>325</v>
       </c>
@@ -9077,7 +8901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A327">
         <v>326</v>
       </c>
@@ -9103,7 +8927,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A328">
         <v>327</v>
       </c>
@@ -9129,7 +8953,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A329">
         <v>328</v>
       </c>
@@ -9155,7 +8979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A330">
         <v>329</v>
       </c>
@@ -9181,7 +9005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A331">
         <v>330</v>
       </c>
@@ -9207,7 +9031,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A332">
         <v>331</v>
       </c>
@@ -9230,7 +9054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A333">
         <v>332</v>
       </c>
@@ -9256,7 +9080,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A334">
         <v>333</v>
       </c>
@@ -9282,7 +9106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A335">
         <v>334</v>
       </c>
@@ -9308,7 +9132,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A336">
         <v>335</v>
       </c>
@@ -9334,7 +9158,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A337">
         <v>336</v>
       </c>
@@ -9360,7 +9184,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A338">
         <v>337</v>
       </c>
@@ -9383,7 +9207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A339">
         <v>338</v>
       </c>
@@ -9409,7 +9233,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A340">
         <v>339</v>
       </c>
@@ -9435,7 +9259,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A341">
         <v>340</v>
       </c>
@@ -9461,7 +9285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A342">
         <v>341</v>
       </c>
@@ -9487,7 +9311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A343">
         <v>342</v>
       </c>
@@ -9513,7 +9337,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A344">
         <v>343</v>
       </c>
@@ -9539,7 +9363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A345">
         <v>344</v>
       </c>
@@ -9565,7 +9389,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A346">
         <v>345</v>
       </c>
@@ -9591,7 +9415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A347">
         <v>346</v>
       </c>
@@ -9617,7 +9441,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A348">
         <v>347</v>
       </c>
@@ -9643,7 +9467,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A349">
         <v>348</v>
       </c>
@@ -9669,7 +9493,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A350">
         <v>349</v>
       </c>
@@ -9695,7 +9519,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A351">
         <v>350</v>
       </c>
@@ -9721,7 +9545,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A352">
         <v>351</v>
       </c>
@@ -9747,7 +9571,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A353">
         <v>352</v>
       </c>
@@ -9773,7 +9597,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A354">
         <v>353</v>
       </c>
@@ -9799,7 +9623,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A355">
         <v>354</v>
       </c>
@@ -9825,7 +9649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A356">
         <v>355</v>
       </c>
@@ -9848,7 +9672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A357">
         <v>356</v>
       </c>
@@ -9874,7 +9698,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A358">
         <v>357</v>
       </c>
@@ -9900,7 +9724,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A359">
         <v>358</v>
       </c>
@@ -9926,7 +9750,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A360">
         <v>359</v>
       </c>
@@ -9952,7 +9776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A361">
         <v>360</v>
       </c>
@@ -9978,7 +9802,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A362">
         <v>361</v>
       </c>
@@ -10004,7 +9828,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A363">
         <v>362</v>
       </c>
@@ -10030,7 +9854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A364">
         <v>363</v>
       </c>
@@ -10056,7 +9880,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A365">
         <v>364</v>
       </c>
@@ -10082,7 +9906,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A366">
         <v>365</v>
       </c>
@@ -10108,7 +9932,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A367">
         <v>366</v>
       </c>
@@ -10134,7 +9958,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A368">
         <v>367</v>
       </c>
@@ -10160,7 +9984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A369">
         <v>368</v>
       </c>
@@ -10186,7 +10010,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A370">
         <v>369</v>
       </c>
@@ -10212,7 +10036,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A371">
         <v>370</v>
       </c>
@@ -10238,7 +10062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A372">
         <v>371</v>
       </c>
@@ -10264,7 +10088,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A373">
         <v>372</v>
       </c>
@@ -10290,7 +10114,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A374">
         <v>373</v>
       </c>
@@ -10316,7 +10140,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A375">
         <v>374</v>
       </c>
@@ -10342,7 +10166,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A376">
         <v>375</v>
       </c>
@@ -10365,7 +10189,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A377">
         <v>376</v>
       </c>
@@ -10391,7 +10215,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A378">
         <v>377</v>
       </c>
@@ -10417,7 +10241,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A379">
         <v>378</v>
       </c>
@@ -10443,7 +10267,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A380">
         <v>379</v>
       </c>
@@ -10469,7 +10293,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A381">
         <v>380</v>
       </c>
@@ -10495,7 +10319,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A382">
         <v>381</v>
       </c>
@@ -10521,7 +10345,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A383">
         <v>382</v>
       </c>
@@ -10547,7 +10371,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A384">
         <v>383</v>
       </c>
@@ -10573,7 +10397,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A385">
         <v>384</v>
       </c>
@@ -10599,7 +10423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A386">
         <v>385</v>
       </c>
@@ -10625,7 +10449,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A387">
         <v>386</v>
       </c>
@@ -10651,7 +10475,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A388">
         <v>387</v>
       </c>
@@ -10677,7 +10501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A389">
         <v>388</v>
       </c>
@@ -10703,7 +10527,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A390">
         <v>389</v>
       </c>
@@ -10729,7 +10553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A391">
         <v>390</v>
       </c>
@@ -10755,7 +10579,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A392">
         <v>391</v>
       </c>
@@ -10781,7 +10605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A393">
         <v>392</v>
       </c>
@@ -10807,7 +10631,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A394">
         <v>393</v>
       </c>
@@ -10833,7 +10657,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A395">
         <v>394</v>
       </c>
@@ -10859,7 +10683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A396">
         <v>395</v>
       </c>
@@ -10885,7 +10709,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A397">
         <v>396</v>
       </c>
@@ -10911,7 +10735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A398">
         <v>397</v>
       </c>
@@ -10937,7 +10761,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A399">
         <v>398</v>
       </c>
